--- a/dist/整合結果/聯合產經/excel_by_week/2025_W24.xlsx
+++ b/dist/整合結果/聯合產經/excel_by_week/2025_W24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>因應美國關稅衝擊 勞長洪申翰赴新竹與工會座談</t>
+          <t>蕭美琴接見創投公會 盼攜手打造新創雨林生態系</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8805807?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8805798?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>德國經濟辦事處來訪 韓國瑜：台德科技經貿合作深化</t>
+          <t>因應美國關稅衝擊 勞長洪申翰赴新竹與工會座談</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8805823?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8805807?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>去年為全球第六大淨債權國...今退後一名 央行：退步不是壞事</t>
+          <t>德國經濟辦事處來訪 韓國瑜：台德科技經貿合作深化</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8805862?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8805823?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>逢甲大學樹倒壓死男大生 女友全程目睹盼叫醒愛人無奈喚不回</t>
+          <t>去年為全球第六大淨債權國...今退後一名 央行：退步不是壞事</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7315/8805969?from=redpush</t>
+          <t>https://udn.com/news/story/7239/8805862?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0050拆分後還是投資首選嗎？和同樣追蹤台灣50指數的006208，想抱10年以上選誰好？</t>
+          <t>逢甲大學樹倒壓死男大生 女友全程目睹盼叫醒愛人無奈喚不回</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/12040/8800976?udnredirection</t>
+          <t>https://udn.com/news/story/7315/8805969?from=redpush</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蕭美琴接見創投公會 盼攜手打造新創雨林生態系</t>
+          <t>合庫銀再發行綠色金融債 ESG 債券累計發行量突破百億元</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8805798?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8805786?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>超微下一代伺服器處理器Venice 強調運算效能將比現今提升七成</t>
+          <t>樂觀看待2028年資料中心AI加速器 蘇姿丰：TAM將超過5000億美元</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806098?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806077?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>超微伺服器晶片 台積操刀…新一代處理器將採2奈米製程</t>
+          <t>超微下一代伺服器處理器Venice 強調運算效能將比現今提升七成</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806197?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806098?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>央行戰熱錢、匯市爆量震盪 因「風向變」加重阻升力道</t>
+          <t>超微伺服器晶片 台積操刀…新一代處理器將採2奈米製程</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806006?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806197?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>合庫銀再發行綠色金融債 ESG 債券累計發行量突破百億元</t>
+          <t>央行戰熱錢、匯市爆量震盪 因「風向變」加重阻升力道</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8805786?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806006?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>樂觀看待2028年資料中心AI加速器 蘇姿丰：TAM將超過5000億美元</t>
+          <t>致力 ESG！兆豐銀行再發綠色債券 累計已發6檔共80億元</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806077?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8805767?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>新台幣升值成第2季財報挑戰 但法人看好兩大族群</t>
+          <t>0050拆分後還是投資首選嗎？和同樣追蹤台灣50指數的006208，想抱10年以上選誰好？</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8805751?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/12040/8800976?udnredirection</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>致力 ESG！兆豐銀行再發綠色債券 累計已發6檔共80億元</t>
+          <t>嚴格取締！為有利台美談判 卓揆發聲：防轉運、洗產地</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8805767?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8805714?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>收租有簽章 要繳印花稅</t>
+          <t>新台幣升值成第2季財報挑戰 但法人看好兩大族群</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8803511?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8805751?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>房屋、地價稅 自住優惠有別</t>
+          <t>收租有簽章 要繳印花稅</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8803508?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7243/8803511?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>卡主管位又愛躲開會！穿洋裝還被酸演歌仔戲 她回嗆「人老珠黃」讓老屁股閉嘴</t>
+          <t>房屋、地價稅 自住優惠有別</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/121591/8804336?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7243/8803508?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>兼職跑計程車10年扣除成本賺500萬！小師傅：以前用時間拚錢現在用錢換回人生</t>
+          <t>麥味登早餐，養出一家興櫃肉品廠！超秦如何用AI以小搏大？</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/121591/8804582?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6837/8804053</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>台積電股價成房市風向球？ 專家：關稅未明房市短暫回溫</t>
+          <t>卡主管位又愛躲開會！穿洋裝還被酸演歌仔戲 她回嗆「人老珠黃」讓老屁股閉嘴</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8805285?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/121591/8804336?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>首季六都公寓房價漲贏電梯大樓 這地年漲二成居冠</t>
+          <t>兼職跑計程車10年扣除成本賺500萬！小師傅：以前用時間拚錢現在用錢換回人生</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8805304?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/121591/8804582?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>鴻海量子密碼重大成果 獲密碼學頂尖會議Crypto接收</t>
+          <t>用GPU來做AI是不健康的！為何他認為NPU如「哆啦A夢式AI」 對人類及地球可能更理想？</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8805316?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/6839/8804825</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025報稅／不孕症補助款 免納所得稅</t>
+          <t>台積電股價成房市風向球？ 專家：關稅未明房市短暫回溫</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8803509?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8805285?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>東元帶領供應商低碳轉型 2025「1+N 碳管理示範團隊計畫」啟動</t>
+          <t>首季六都公寓房價漲贏電梯大樓 這地年漲二成居冠</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8805380?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8805304?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>聯發科長期投入產學資源 促進半導體前瞻技術研發與高階人才培育</t>
+          <t>2025報稅／不孕症補助款 免納所得稅</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8805424?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7243/8803509?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>宜蘭子弟推動聽力平權 家鄉設總部可望年產百萬台助聽器</t>
+          <t>SCFI運價指數終止連五漲！美西線大跌、歐洲唯一逆勢上揚</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8805428?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8805354?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>翁健接任元大金董事長 延續穩健經營路線</t>
+          <t>鴻海量子密碼重大成果 獲密碼學頂尖會議Crypto接收</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8805522?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8805316?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>林明成之子林知延 正式出掌華南金副董事長</t>
+          <t>高鐵董事會今推選 史哲任董事長、陳惠裕任總經理</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8805598?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8805679?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>強強結盟！微星攜手紅牛搶攻電競市場</t>
+          <t>林明成之子林知延 正式出掌華南金副董事長</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8805621?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8805598?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>嚴格取締！為有利台美談判 卓揆發聲：防轉運、洗產地</t>
+          <t>強強結盟！微星攜手紅牛搶攻電競市場</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8805714?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8805621?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>高鐵董事會今推選 史哲任董事長、陳惠裕任總經理</t>
+          <t>宜蘭子弟推動聽力平權 家鄉設總部可望年產百萬台助聽器</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8805679?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8805428?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1223,46 +1223,46 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SCFI運價指數終止連五漲！美西線大跌、歐洲唯一逆勢上揚</t>
+          <t>聯發科長期投入產學資源 促進半導體前瞻技術研發與高階人才培育</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8805354?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8805424?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0050拆分後還是投資首選嗎？和同樣追蹤台灣50指數的006208，想抱10年以上選誰好？</t>
+          <t>東元帶領供應商低碳轉型 2025「1+N 碳管理示範團隊計畫」啟動</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/12040/8800976?udnredirection</t>
+          <t>https://udn.com/news/story/7240/8805380?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>台北市137件危老失效！小基地占近7成 專家曝兩招解方</t>
+          <t>翁健接任元大金董事長 延續穩健經營路線</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8806958?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8805522?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>中美關稅戰暫休兵 學者籲：留意服貿成大陸未來反制目標</t>
+          <t>0050拆分後還是投資首選嗎？和同樣追蹤台灣50指數的006208，想抱10年以上選誰好？</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8806840?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/12040/8800976?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>出生人數又破底！專家：3種房子房價將加速鬆動</t>
+          <t>中美關稅戰暫休兵 學者籲：留意服貿成大陸未來反制目標</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8806728?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8806840?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>00919 ETF 攻略／配息0.72元、殖利率近13% 下周除息要先上車嗎？（2025最新）</t>
+          <t>台北市137件危老失效！小基地占近7成 專家曝兩招解方</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/124512/8797909?udnredirection</t>
+          <t>https://udn.com/news/story/7241/8806958?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>老農賣關埔土地原稅高達千萬 新竹市稅務局一招省90萬</t>
+          <t>金管會三措施助壽險接軌 IFRS17 法人看好兩檔金控股</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8807133?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8807058?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>職場活用AI術1／上萬通客訴全靠AI當軍師 菜鳥不敢電老鳥 討厭的事交給AI就對了</t>
+          <t>00919 ETF 攻略／配息0.72元、殖利率近13% 下周除息要先上車嗎？（2025最新）</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5612/8800242?udnredirection</t>
+          <t>https://money.udn.com/money/story/124512/8797909?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>長榮、萬海市值大躍進</t>
+          <t>吳誠文：12、28奈米成熟製程 可製造國安關鍵晶片</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5607/8803418?udnredirection</t>
+          <t>https://udn.com/news/story/7240/8807144?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>吳誠文：12、28奈米成熟製程 可製造國安關鍵晶片</t>
+          <t>職場活用AI術1／上萬通客訴全靠AI當軍師 菜鳥不敢電老鳥 討厭的事交給AI就對了</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8807144?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/5612/8800242?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>誠品台南店開幕！試營運17天逾40萬人造訪 這天24小時不打烊</t>
+          <t>長榮、萬海市值大躍進</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8807146?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/5607/8803418?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>緯穎綠色行動+1攜新北市府在貢寮以3理念 推動海洋保育</t>
+          <t>老農賣關埔土地原稅高達千萬 新竹市稅務局一招省90萬</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8807259?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7243/8807133?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>央行周四理監事會 市場聚焦五大議題！預期貼放利率「連五凍」</t>
+          <t>誠品台南店開幕！試營運17天逾40萬人造訪 這天24小時不打烊</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807339?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8807146?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>台積電赴美 呂桔誠：台美各有長處、應攜手培育人才</t>
+          <t>緯穎綠色行動+1攜新北市府在貢寮以3理念 推動海洋保育</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806501?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8807259?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>國際穩定幣蓬勃發展 台灣會跟上嗎？央行官員這麼說</t>
+          <t>央行周四理監事會 市場聚焦五大議題！預期貼放利率「連五凍」</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807347?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8807339?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>穩定幣大戰1／99%穩定幣掛勾美元 各國開打貨幣戰 台幣穩定幣得找台積電幫忙</t>
+          <t>國際穩定幣蓬勃發展 台灣會跟上嗎？央行官員這麼說</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5613/8802579?udnredirection</t>
+          <t>https://udn.com/news/story/7238/8807347?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>小宅成房市主流 低總價搶進是聰明布局還是空手接刀？</t>
+          <t>出生人數又破底！專家：3種房子房價將加速鬆動</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121938/8804045?from=udn-category</t>
+          <t>https://udn.com/news/story/7241/8806728?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>蔡明興：台幣升值有利有弊 但別太快太猛</t>
+          <t>穩定幣大戰1／99%穩定幣掛勾美元 各國開打貨幣戰 台幣穩定幣得找台積電幫忙</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806289?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/5613/8802579?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>凱基金三措 施降低匯兌風險</t>
+          <t>台積電赴美 呂桔誠：台美各有長處、應攜手培育人才</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806277?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806501?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>消費線上／當618遇到報稅季 電商優惠有感 但消費者變得更精明</t>
+          <t>企業生日快樂／葡萄王 強打健康牌 開創藍海</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121938/8806285?from=udn-category</t>
+          <t>https://udn.com/news/story/7241/8805864?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>星宇三箭齊發 拚明年配息…董座張國煒強調2025要努力賺錢</t>
+          <t>消費線上／當618遇到報稅季 電商優惠有感 但消費者變得更精明</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8806143?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121938/8806285?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>台幣猛飆進逼29.5元 央行出手穩匯終場小貶0.8分</t>
+          <t>小宅成房市主流 低總價搶進是聰明布局還是空手接刀？</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806251?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121938/8804045?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>金控雙雄董座 都關切匯率…強調金管會新措施將對壽險業有幫助</t>
+          <t>消費線上／當618遇到報稅季 電商優惠有感 但消費者變得更精明</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806231?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121938/8806285?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>美商務部談出口管制 限縮華為AI晶片產量</t>
+          <t>台幣猛飆進逼29.5元 央行出手穩匯終場小貶0.8分</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806194?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806251?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>廣達布局智慧醫療、自駕車 跨步</t>
+          <t>金控雙雄董座 都關切匯率…強調金管會新措施將對壽險業有幫助</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806191?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806231?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>消費線上／當618遇到報稅季 電商優惠有感 但消費者變得更精明</t>
+          <t>美商務部談出口管制 限縮華為AI晶片產量</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121938/8806285?from=udn-category</t>
+          <t>https://udn.com/news/story/7240/8806194?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>中東緊張升溫「嚇」到亞股 台股跌破5日線</t>
+          <t>廣達布局智慧醫療、自駕車 跨步</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8806295?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806191?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>金控改選 新一代接班開啟新局</t>
+          <t>中東緊張升溫「嚇」到亞股 台股跌破5日線</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806284?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8806295?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>企業生日快樂／葡萄王現代化管理 鞏固利基</t>
+          <t>人型機器人「貴又難做」 林百里專心攻量子電腦</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8805871?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806293?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>企業生日快樂／葡萄王擴展海外布局 衝營運</t>
+          <t>星宇三箭齊發 拚明年配息…董座張國煒強調2025要努力賺錢</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8805869?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8806143?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>企業生日快樂／葡萄王 強打健康牌 開創藍海</t>
+          <t>金控改選 新一代接班開啟新局</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8805864?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806284?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>台灣大挺生物多樣性 看見成果</t>
+          <t>企業生日快樂／葡萄王現代化管理 鞏固利基</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8806281?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8805871?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>玉山金衝刺證券投資</t>
+          <t>企業生日快樂／葡萄王擴展海外布局 衝營運</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806278?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8805869?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>翁健升任元大金董座</t>
+          <t>台灣大挺生物多樣性 看見成果</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806279?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8806281?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1869,63 +1869,675 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>人型機器人「貴又難做」 林百里專心攻量子電腦</t>
+          <t>玉山金衝刺證券投資</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806293?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806278?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>超級央行周來了 美日英台等國利率估不變</t>
+          <t>翁健升任元大金董座</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807650?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806279?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>以伊衝突加劇 國際油價漲逾7%</t>
+          <t>蔡明興：台幣升值有利有弊 但別太快太猛</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807673?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806289?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>凱基金三措 施降低匯兌風險</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8806277?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>本周台股／以伊開戰 為何專家不擔心台股周一開盤？</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/121938/8807102?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>黃仁勳打造歐洲AI生態系統 供應鏈卻憂AI伺服器2大挑戰</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122867/8807022?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>新北國光二期社宅即將釋出600戶 育兒家庭中籤率提高</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8807960?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>支持永續聯名簽署行動 矽品精密共築低碳生活永續未來</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8808035?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>淡江大橋明年3月通車 淡海沙崙7樓賣到6字頭</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808090?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>全球人壽支持體育發展 攜手台鋼雄鷹舉辦親子主題日</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808355?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>以伊衝突衝擊！台新投顧：台灣3產業壓力最大 聯準會降息將受影響</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8808621?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>年薪不到150萬元新青安難申請？土銀周末發聲3點回應了</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808721?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>金融三業大陸曝險續降 銀行曝險年減近千億 淨值比降至17.2%</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808697?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>為何存錢讓我們感到痛苦？ 財經作家剖析「簡單致富的21條理財金律」</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/121591/8808759?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>中國政經風險增 金融三業對中曝險續創歷史新低</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808817?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>金融三業撤陸腳步加速！銀行將跌破「8字頭」 連七年衰退</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808897?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>黑名單！經濟部證實：出口管制實體清單增601個 含華為、中芯等</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8808914?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>投資要找理財顧問嗎？ 商學院教授兩個原因反對 建議「設後不理」即可</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/121591/8802796?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>境外金融前四月賺逾10億美元 為何OSU單月爆賺百倍？</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808915?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>他不是政府…卻玩出主權級基金規模 孫正義的募資力台灣如何借鏡？</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808658?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>央行理監事會19日登場 利率有望連五凍 五議題聚焦</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8807613?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>高價IC設計大搶AI商機 信驊、聯發科等強化相關應用布局</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8807633?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>產業追蹤／產業數位轉型 GAI扮推手 新興技術深入製造、醫療、行銷等領域</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8807378?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>華為、中芯列出口黑名單 我加入對陸科技封殺</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8808965?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>以伊衝突加劇 國際油價漲逾7%</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8807673?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>超級央行周來了 美日英台等國利率估不變</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8807650?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>輝達進駐北士科 新屋成交價寫新高</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>https://udn.com/news/story/7238/8807667?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>華科PSA集團 談景氣展望</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8807504?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>投資論壇6月18日舉辦 教戰ETF致勝</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8807509?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>外銷訂單估連四月成長 經部預期5月金額550億至570億美元</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8807500?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>中小企業永續轉型 標竿學習／台北國泰萬怡 聰明留才</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8807632?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>匯率、關稅…台灣IC設計業下半年考驗大</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8807634?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>以伊衝突 航商避開波灣</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8807616?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>匯市最前線／台幣29.5~29.8元波動</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8807620?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>台灣168／今年物價指數年增率下修</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8807385?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>每周一勢／製造業產值季增10.7%</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8807394?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>產業追蹤／3D建模商用 開啟新視界</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8807379?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>產業追蹤／模型訓練 優化布料檢測</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8807377?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>學者呼籲 央行考慮預防性降息</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8807615?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>傳台積1.2奈米進駐 南科四期計畫 拚7月送政院</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8808975?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>

--- a/dist/整合結果/聯合產經/excel_by_week/2025_W24.xlsx
+++ b/dist/整合結果/聯合產經/excel_by_week/2025_W24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>高鐵董事會今推選 史哲任董事長、陳惠裕任總經理</t>
+          <t>強強結盟！微星攜手紅牛搶攻電競市場</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8805679?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8805621?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>強強結盟！微星攜手紅牛搶攻電競市場</t>
+          <t>高鐵董事會今推選 史哲任董事長、陳惠裕任總經理</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8805621?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8805679?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>吳誠文：12、28奈米可製造國安關鍵晶片 台灣持續保護</t>
+          <t>出生人數又破底！專家：3種房子房價將加速鬆動</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806701?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8806728?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>士電股東會／未來10年重電市場需求強勁 今年營收、獲利有望成長</t>
+          <t>吳誠文：12、28奈米可製造國安關鍵晶片 台灣持續保護</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806807?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806701?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>中美關稅戰暫休兵 學者籲：留意服貿成大陸未來反制目標</t>
+          <t>士電股東會／未來10年重電市場需求強勁 今年營收、獲利有望成長</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8806840?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806807?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>國定假日多四天！55%上班族提高外出消費意願</t>
+          <t>中美關稅戰暫休兵 學者籲：留意服貿成大陸未來反制目標</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8806947?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8806840?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>台北市137件危老失效！小基地占近7成 專家曝兩招解方</t>
+          <t>國定假日多四天！55%上班族提高外出消費意願</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8806958?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8806947?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>金管會三措施助壽險接軌 IFRS17 法人看好兩檔金控股</t>
+          <t>台北市137件危老失效！小基地占近7成 專家曝兩招解方</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8807058?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8806958?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>00919 ETF 攻略／配息0.72元、殖利率近13% 下周除息要先上車嗎？（2025最新）</t>
+          <t>金管會三措施助壽險接軌 IFRS17 法人看好兩檔金控股</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/124512/8797909?udnredirection</t>
+          <t>https://udn.com/news/story/7239/8807058?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>吳誠文：12、28奈米成熟製程 可製造國安關鍵晶片</t>
+          <t>00919 ETF 攻略／配息0.72元、殖利率近13% 下周除息要先上車嗎？（2025最新）</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8807144?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/124512/8797909?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>職場活用AI術1／上萬通客訴全靠AI當軍師 菜鳥不敢電老鳥 討厭的事交給AI就對了</t>
+          <t>吳誠文：12、28奈米成熟製程 可製造國安關鍵晶片</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5612/8800242?udnredirection</t>
+          <t>https://udn.com/news/story/7240/8807144?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>長榮、萬海市值大躍進</t>
+          <t>職場活用AI術1／上萬通客訴全靠AI當軍師 菜鳥不敢電老鳥 討厭的事交給AI就對了</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5607/8803418?udnredirection</t>
+          <t>https://money.udn.com/money/story/5612/8800242?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>老農賣關埔土地原稅高達千萬 新竹市稅務局一招省90萬</t>
+          <t>長榮、萬海市值大躍進</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8807133?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/5607/8803418?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>誠品台南店開幕！試營運17天逾40萬人造訪 這天24小時不打烊</t>
+          <t>老農賣關埔土地原稅高達千萬 新竹市稅務局一招省90萬</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8807146?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7243/8807133?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>緯穎綠色行動+1攜新北市府在貢寮以3理念 推動海洋保育</t>
+          <t>誠品台南店開幕！試營運17天逾40萬人造訪 這天24小時不打烊</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8807259?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8807146?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>央行周四理監事會 市場聚焦五大議題！預期貼放利率「連五凍」</t>
+          <t>緯穎綠色行動+1攜新北市府在貢寮以3理念 推動海洋保育</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807339?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8807259?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>國際穩定幣蓬勃發展 台灣會跟上嗎？央行官員這麼說</t>
+          <t>央行周四理監事會 市場聚焦五大議題！預期貼放利率「連五凍」</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807347?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8807339?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>出生人數又破底！專家：3種房子房價將加速鬆動</t>
+          <t>國際穩定幣蓬勃發展 台灣會跟上嗎？央行官員這麼說</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8806728?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8807347?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>穩定幣大戰1／99%穩定幣掛勾美元 各國開打貨幣戰 台幣穩定幣得找台積電幫忙</t>
+          <t>台積電赴美 呂桔誠：台美各有長處、應攜手培育人才</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5613/8802579?udnredirection</t>
+          <t>https://udn.com/news/story/7240/8806501?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>台積電赴美 呂桔誠：台美各有長處、應攜手培育人才</t>
+          <t>穩定幣大戰1／99%穩定幣掛勾美元 各國開打貨幣戰 台幣穩定幣得找台積電幫忙</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806501?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/5613/8802579?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>企業生日快樂／葡萄王 強打健康牌 開創藍海</t>
+          <t>小宅成房市主流 低總價搶進是聰明布局還是空手接刀？</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8805864?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121938/8804045?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>消費線上／當618遇到報稅季 電商優惠有感 但消費者變得更精明</t>
+          <t>企業生日快樂／葡萄王擴展海外布局 衝營運</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121938/8806285?from=udn-category</t>
+          <t>https://udn.com/news/story/7241/8805869?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>小宅成房市主流 低總價搶進是聰明布局還是空手接刀？</t>
+          <t>凱基金三措 施降低匯兌風險</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121938/8804045?from=udn-category</t>
+          <t>https://udn.com/news/story/7239/8806277?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>台幣猛飆進逼29.5元 央行出手穩匯終場小貶0.8分</t>
+          <t>消費線上／當618遇到報稅季 電商優惠有感 但消費者變得更精明</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806251?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121938/8806285?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>金控雙雄董座 都關切匯率…強調金管會新措施將對壽險業有幫助</t>
+          <t>張國煒談飛安…我顧得很緊</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806231?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8806149?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>美商務部談出口管制 限縮華為AI晶片產量</t>
+          <t>星宇三箭齊發 拚明年配息…董座張國煒強調2025要努力賺錢</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806194?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8806143?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>廣達布局智慧醫療、自駕車 跨步</t>
+          <t>台幣猛飆進逼29.5元 央行出手穩匯終場小貶0.8分</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806191?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806251?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>林百里：人形機器人貴又難做 攻量子電腦…十年磨劍</t>
+          <t>金控雙雄董座 都關切匯率…強調金管會新措施將對壽險業有幫助</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806186?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806231?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>中東緊張升溫「嚇」到亞股 台股跌破5日線</t>
+          <t>美商務部談出口管制 限縮華為AI晶片產量</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8806295?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806194?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>人型機器人「貴又難做」 林百里專心攻量子電腦</t>
+          <t>廣達布局智慧醫療、自駕車 跨步</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8806293?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806191?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>星宇三箭齊發 拚明年配息…董座張國煒強調2025要努力賺錢</t>
+          <t>林百里：人形機器人貴又難做 攻量子電腦…十年磨劍</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8806143?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806186?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>金控改選 新一代接班開啟新局</t>
+          <t>華城奪美星門計畫大單 士電看好未來十年重電產業發展</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806284?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8806169?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>企業生日快樂／葡萄王現代化管理 鞏固利基</t>
+          <t>人型機器人「貴又難做」 林百里專心攻量子電腦</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8805871?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8806293?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>企業生日快樂／葡萄王擴展海外布局 衝營運</t>
+          <t>蔡明興：台幣升值有利有弊 但別太快太猛</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8805869?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806289?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>台灣大挺生物多樣性 看見成果</t>
+          <t>金控改選 新一代接班開啟新局</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8806281?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806284?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>玉山金衝刺證券投資</t>
+          <t>企業生日快樂／葡萄王現代化管理 鞏固利基</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806278?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8805871?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>翁健升任元大金董座</t>
+          <t>企業生日快樂／葡萄王 強打健康牌 開創藍海</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806279?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8805864?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>蔡明興：台幣升值有利有弊 但別太快太猛</t>
+          <t>台灣大挺生物多樣性 看見成果</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806289?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8806281?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1920,46 +1920,46 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>凱基金三措 施降低匯兌風險</t>
+          <t>玉山金衝刺證券投資</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8806277?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8806278?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>本周台股／以伊開戰 為何專家不擔心台股周一開盤？</t>
+          <t>中東緊張升溫「嚇」到亞股 台股跌破5日線</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/121938/8807102?from=udn-category</t>
+          <t>https://udn.com/news/story/7238/8806295?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>黃仁勳打造歐洲AI生態系統 供應鏈卻憂AI伺服器2大挑戰</t>
+          <t>翁健升任元大金董座</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122867/8807022?from=udn-category</t>
+          <t>https://udn.com/news/story/7239/8806279?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>新北國光二期社宅即將釋出600戶 育兒家庭中籤率提高</t>
+          <t>本周台股／以伊開戰 為何專家不擔心台股周一開盤？</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8807960?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/121938/8807102?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>支持永續聯名簽署行動 矽品精密共築低碳生活永續未來</t>
+          <t>黃仁勳打造歐洲AI生態系統 供應鏈卻憂AI伺服器2大挑戰</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8808035?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122867/8807022?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>淡江大橋明年3月通車 淡海沙崙7樓賣到6字頭</t>
+          <t>新北國光二期社宅即將釋出600戶 育兒家庭中籤率提高</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808090?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8807960?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>全球人壽支持體育發展 攜手台鋼雄鷹舉辦親子主題日</t>
+          <t>支持永續聯名簽署行動 矽品精密共築低碳生活永續未來</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808355?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8808035?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>以伊衝突衝擊！台新投顧：台灣3產業壓力最大 聯準會降息將受影響</t>
+          <t>淡江大橋明年3月通車 淡海沙崙7樓賣到6字頭</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8808621?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8808090?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>年薪不到150萬元新青安難申請？土銀周末發聲3點回應了</t>
+          <t>全球人壽支持體育發展 攜手台鋼雄鷹舉辦親子主題日</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808721?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808355?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>金融三業大陸曝險續降 銀行曝險年減近千億 淨值比降至17.2%</t>
+          <t>以伊衝突衝擊！台新投顧：台灣3產業壓力最大 聯準會降息將受影響</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808697?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8808621?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>中國政經風險增 金融三業對中曝險續創歷史新低</t>
+          <t>金融三業大陸曝險續降 銀行曝險年減近千億 淨值比降至17.2%</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808817?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808697?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>金融三業撤陸腳步加速！銀行將跌破「8字頭」 連七年衰退</t>
+          <t>年薪不到150萬元新青安難申請？土銀周末發聲3點回應了</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808897?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808721?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>黑名單！經濟部證實：出口管制實體清單增601個 含華為、中芯等</t>
+          <t>中國政經風險增 金融三業對中曝險續創歷史新低</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8808914?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808817?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>投資要找理財顧問嗎？ 商學院教授兩個原因反對 建議「設後不理」即可</t>
+          <t>金融三業撤陸腳步加速！銀行將跌破「8字頭」 連七年衰退</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/121591/8802796?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808897?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>境外金融前四月賺逾10億美元 為何OSU單月爆賺百倍？</t>
+          <t>黑名單！經濟部證實：出口管制實體清單增601個 含華為、中芯等</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808915?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8808914?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>他不是政府…卻玩出主權級基金規模 孫正義的募資力台灣如何借鏡？</t>
+          <t>投資要找理財顧問嗎？ 商學院教授兩個原因反對 建議「設後不理」即可</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808658?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/121591/8802796?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>央行理監事會19日登場 利率有望連五凍 五議題聚焦</t>
+          <t>境外金融前四月賺逾10億美元 為何OSU單月爆賺百倍？</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807613?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808915?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>高價IC設計大搶AI商機 信驊、聯發科等強化相關應用布局</t>
+          <t>他不是政府…卻玩出主權級基金規模 孫正義的募資力台灣如何借鏡？</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8807633?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8808658?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>產業追蹤／產業數位轉型 GAI扮推手 新興技術深入製造、醫療、行銷等領域</t>
+          <t>央行理監事會19日登場 利率有望連五凍 五議題聚焦</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8807378?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8807613?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>華為、中芯列出口黑名單 我加入對陸科技封殺</t>
+          <t>匯率、關稅…台灣IC設計業下半年考驗大</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8808965?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8807634?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>以伊衝突加劇 國際油價漲逾7%</t>
+          <t>產業追蹤／產業數位轉型 GAI扮推手 新興技術深入製造、醫療、行銷等領域</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807673?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8807378?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>超級央行周來了 美日英台等國利率估不變</t>
+          <t>華為、中芯列出口黑名單 我加入對陸科技封殺</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807650?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8808965?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>輝達進駐北士科 新屋成交價寫新高</t>
+          <t>以伊衝突加劇 國際油價漲逾7%</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807667?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8807673?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>華科PSA集團 談景氣展望</t>
+          <t>超級央行周來了 美日英台等國利率估不變</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8807504?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8807650?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>投資論壇6月18日舉辦 教戰ETF致勝</t>
+          <t>輝達進駐北士科 新屋成交價寫新高</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8807509?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8807667?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>外銷訂單估連四月成長 經部預期5月金額550億至570億美元</t>
+          <t>華科PSA集團 談景氣展望</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807500?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8807504?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>中小企業永續轉型 標竿學習／台北國泰萬怡 聰明留才</t>
+          <t>投資論壇6月18日舉辦 教戰ETF致勝</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8807632?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8807509?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>匯率、關稅…台灣IC設計業下半年考驗大</t>
+          <t>外銷訂單估連四月成長 經部預期5月金額550億至570億美元</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8807634?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8807500?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>以伊衝突 航商避開波灣</t>
+          <t>中小企業永續轉型 標竿學習／台北國泰萬怡 聰明留才</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8807616?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8807632?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>匯市最前線／台幣29.5~29.8元波動</t>
+          <t>高價IC設計大搶AI商機 信驊、聯發科等強化相關應用布局</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8807620?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8807633?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>台灣168／今年物價指數年增率下修</t>
+          <t>以伊衝突 航商避開波灣</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807385?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8807616?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>每周一勢／製造業產值季增10.7%</t>
+          <t>匯市最前線／台幣29.5~29.8元波動</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807394?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8807620?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>產業追蹤／3D建模商用 開啟新視界</t>
+          <t>台灣168／今年物價指數年增率下修</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8807379?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8807385?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>產業追蹤／模型訓練 優化布料檢測</t>
+          <t>每周一勢／製造業產值季增10.7%</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8807377?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8807394?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>學者呼籲 央行考慮預防性降息</t>
+          <t>產業追蹤／3D建模商用 開啟新視界</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8807615?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8807379?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -2532,10 +2532,44 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>產業追蹤／模型訓練 優化布料檢測</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8807377?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>學者呼籲 央行考慮預防性降息</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8807615?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>傳台積1.2奈米進駐 南科四期計畫 拚7月送政院</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>https://udn.com/news/story/7240/8808975?from=udn-catelistnews_ch2</t>
         </is>
